--- a/data/trans_orig/INICIO_TABACO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/INICIO_TABACO-Estudios-trans_orig.xlsx
@@ -562,47 +562,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
         </is>
       </c>
     </row>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>15,71</t>
+          <t>15,72</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>15,45</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>16,73</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>15,54</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19,87</t>
+          <t>17,9</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>20,2</t>
+          <t>18,66</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>17,74</t>
+          <t>20,29</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>17,1</t>
+          <t>16,53</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>17,78</t>
+          <t>16,49</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>16,17</t>
+          <t>17,8</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,99; 16,62</t>
+          <t>15,2; 16,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,71; 18,27</t>
+          <t>14,78; 16,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,22; 15,86</t>
+          <t>15,59; 18,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,25; 22,44</t>
+          <t>17,21; 18,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,31; 24,12</t>
+          <t>17,42; 20,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,16; 18,45</t>
+          <t>18,25; 23,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,34; 18,19</t>
+          <t>16,08; 17,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,63; 19,2</t>
+          <t>15,77; 17,26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,9; 16,51</t>
+          <t>16,67; 19,22</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>16,46</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>17,12</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>17,57</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>16,69</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,7</t>
+          <t>17,25</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>17,68</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>18,17</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>17,22</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>16,72</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>17,37</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>17,83</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>16,92</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,74; 17,65</t>
+          <t>16,16; 16,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,18; 18,07</t>
+          <t>16,71; 17,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,48; 16,94</t>
+          <t>17,14; 18,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,22; 18,39</t>
+          <t>16,94; 17,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,66; 18,83</t>
+          <t>17,2; 18,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,0; 17,49</t>
+          <t>17,65; 18,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,06; 17,76</t>
+          <t>16,36; 17,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,5; 18,23</t>
+          <t>17,07; 17,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,75; 17,1</t>
+          <t>17,51; 18,19</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>18,13</t>
+          <t>18,04</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>18,28</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>18,59</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>17,89</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,97</t>
+          <t>18,2</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>16,88</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>18,01</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>18,0</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>17,56</t>
+          <t>18,11</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>17,59</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>18,29</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>17,94</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,42; 19,07</t>
+          <t>17,5; 18,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,09; 19,32</t>
+          <t>17,6; 19,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,44; 18,39</t>
+          <t>18,04; 19,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,45; 17,7</t>
+          <t>17,61; 18,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,57; 18,53</t>
+          <t>16,38; 17,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,6; 18,5</t>
+          <t>17,59; 18,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,09; 18,16</t>
+          <t>17,74; 18,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,92; 18,72</t>
+          <t>17,1; 18,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,62; 18,34</t>
+          <t>17,9; 18,71</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,02</t>
+          <t>16,63</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>17,05</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>17,78</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>16,64</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,82</t>
+          <t>17,55</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>17,61</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>18,24</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>17,44</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>17,36</t>
+          <t>16,96</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>17,3</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>17,99</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>16,97</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,71; 17,4</t>
+          <t>16,29; 16,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,46; 18,11</t>
+          <t>16,68; 17,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,48; 16,82</t>
+          <t>17,43; 18,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,41; 18,33</t>
+          <t>17,29; 17,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,86; 18,7</t>
+          <t>17,2; 18,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,25; 17,65</t>
+          <t>17,89; 18,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,07; 17,64</t>
+          <t>16,61; 17,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,74; 18,27</t>
+          <t>17,01; 17,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,82; 17,11</t>
+          <t>17,76; 18,28</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/INICIO_TABACO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/INICIO_TABACO-Estudios-trans_orig.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Edad media en la que empezaron a consumir tabaco en años</t>
+          <t>Edad media en la que empezaron a consumir tabaco en años (tasa de respuesta: 98,19%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/INICIO_TABACO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/INICIO_TABACO-Estudios-trans_orig.xlsx
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,2; 16,44</t>
+          <t>15,18; 16,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,59; 18,3</t>
+          <t>15,61; 18,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,21; 18,89</t>
+          <t>17,19; 18,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,25; 23,7</t>
+          <t>18,29; 24,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,08; 17,09</t>
+          <t>16,06; 17,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,67; 19,22</t>
+          <t>16,66; 19,27</t>
         </is>
       </c>
     </row>
@@ -795,7 +795,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,16; 16,83</t>
+          <t>16,14; 16,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -805,12 +805,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,14; 18,0</t>
+          <t>17,16; 18,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,94; 17,62</t>
+          <t>16,97; 17,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -820,12 +820,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,65; 18,84</t>
+          <t>17,67; 18,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,36; 17,01</t>
+          <t>16,36; 17,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,51; 18,19</t>
+          <t>17,49; 18,19</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,5; 18,7</t>
+          <t>17,46; 18,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -915,12 +915,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>18,04; 19,28</t>
+          <t>18,06; 19,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,61; 18,91</t>
+          <t>17,7; 18,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,59; 18,52</t>
+          <t>17,56; 18,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,74; 18,61</t>
+          <t>17,71; 18,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,9; 18,71</t>
+          <t>17,94; 18,71</t>
         </is>
       </c>
     </row>
@@ -1025,12 +1025,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,43; 18,17</t>
+          <t>17,46; 18,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,29; 17,89</t>
+          <t>17,28; 17,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,89; 18,71</t>
+          <t>17,85; 18,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,76; 18,28</t>
+          <t>17,74; 18,28</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/INICIO_TABACO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/INICIO_TABACO-Estudios-trans_orig.xlsx
@@ -567,42 +567,42 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>15,72</t>
+          <t>15,75</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>16,73</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>15,45</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>16,73</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,9</t>
+          <t>17,94</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>20,29</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>18,66</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>20,29</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>16,53</t>
+          <t>16,57</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>17,8</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>16,49</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>17,8</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,18; 16,47</t>
+          <t>15,22; 16,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>15,61; 18,26</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>14,78; 16,39</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>15,61; 18,26</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,19; 18,79</t>
+          <t>17,25; 18,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>18,29; 24,13</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>17,42; 20,54</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>18,29; 24,13</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,06; 17,06</t>
+          <t>16,11; 17,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
+          <t>16,66; 19,27</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>15,77; 17,26</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>16,66; 19,27</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,46</t>
+          <t>16,69</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>17,57</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>17,12</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>17,57</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,25</t>
+          <t>17,36</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>18,17</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>17,68</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>18,17</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>16,72</t>
+          <t>16,98</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>17,83</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>17,37</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>17,83</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,14; 16,85</t>
+          <t>16,43; 17,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>17,16; 18,0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>16,71; 17,71</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>17,16; 18,0</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,97; 17,64</t>
+          <t>17,07; 17,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>17,67; 18,81</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>17,2; 18,38</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>17,67; 18,81</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,36; 17,0</t>
+          <t>16,77; 17,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
+          <t>17,49; 18,19</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>17,07; 17,84</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>17,49; 18,19</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>18,04</t>
+          <t>18,05</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>18,59</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>18,28</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>18,59</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,2</t>
+          <t>18,33</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>18,01</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>16,88</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>18,01</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>18,11</t>
+          <t>18,17</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>18,29</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>17,59</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>18,29</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,46; 18,69</t>
+          <t>17,51; 18,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
+          <t>18,06; 19,31</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>17,6; 19,22</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>18,06; 19,31</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,7; 18,88</t>
+          <t>17,84; 19,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>17,56; 18,56</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>16,38; 17,52</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>17,56; 18,56</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,71; 18,56</t>
+          <t>17,78; 18,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>17,94; 18,71</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>17,1; 18,18</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>17,94; 18,71</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,63</t>
+          <t>16,84</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>17,78</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>17,05</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>17,78</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,55</t>
+          <t>17,66</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>18,24</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>17,61</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>18,24</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,96</t>
+          <t>17,18</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>17,99</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>17,3</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>17,99</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,29; 16,94</t>
+          <t>16,62; 17,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
+          <t>17,46; 18,16</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>16,68; 17,41</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>17,46; 18,16</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,28; 17,88</t>
+          <t>17,37; 17,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>17,85; 18,67</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>17,2; 18,14</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>17,85; 18,67</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,61; 17,2</t>
+          <t>17,02; 17,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
+          <t>17,74; 18,28</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>17,01; 17,59</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>17,74; 18,28</t>
         </is>
       </c>
     </row>
